--- a/respuestas_cuestionario_acumulado.xlsx
+++ b/respuestas_cuestionario_acumulado.xlsx
@@ -307,8 +307,8 @@
   </sheetPr>
   <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:AU7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A1:AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
